--- a/outputs-HGR-r202/f__Veillonellaceae.xlsx
+++ b/outputs-HGR-r202/f__Veillonellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1665,6 +1915,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1689,6 +1944,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1713,6 +1973,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1737,6 +2002,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1761,6 +2031,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1785,6 +2060,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1809,6 +2089,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1833,6 +2118,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1857,6 +2147,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1881,6 +2176,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1905,6 +2205,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1929,6 +2234,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1953,6 +2263,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1977,6 +2292,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2001,6 +2321,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2025,6 +2350,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2049,6 +2379,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2073,6 +2408,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2097,6 +2437,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2121,6 +2466,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2145,6 +2495,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2169,6 +2524,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2193,6 +2553,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2217,6 +2582,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2241,6 +2611,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2265,6 +2640,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2289,6 +2669,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2313,6 +2698,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2337,6 +2727,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2361,6 +2756,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2385,6 +2785,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2409,6 +2814,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2433,6 +2843,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2457,6 +2872,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2481,6 +2901,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -2505,6 +2930,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -2529,6 +2959,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -2553,6 +2988,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -2577,6 +3017,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -2601,6 +3046,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -2625,6 +3075,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -2649,6 +3104,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2673,6 +3133,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2697,6 +3162,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2721,6 +3191,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2745,6 +3220,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2769,6 +3249,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2793,6 +3278,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2817,6 +3307,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2841,6 +3336,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2865,6 +3365,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2889,6 +3394,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2913,6 +3423,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2937,6 +3452,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2961,6 +3481,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2985,6 +3510,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3009,6 +3539,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3033,6 +3568,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3057,6 +3597,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3081,6 +3626,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3105,6 +3655,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3129,6 +3684,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3153,6 +3713,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3177,6 +3742,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3201,6 +3771,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3225,6 +3800,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3249,6 +3829,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3273,6 +3858,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -3297,6 +3887,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -3321,6 +3916,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -3345,6 +3945,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -3369,6 +3974,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -3393,6 +4003,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -3417,6 +4032,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3441,6 +4061,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -3465,6 +4090,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -3489,6 +4119,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -3513,6 +4148,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -3537,6 +4177,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3561,6 +4206,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -3585,6 +4235,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -3609,6 +4264,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -3633,6 +4293,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -3657,6 +4322,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3681,6 +4351,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -3705,6 +4380,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -3729,6 +4409,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -3753,6 +4438,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -3777,6 +4467,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3801,6 +4496,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -3825,6 +4525,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -3849,6 +4554,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -3873,6 +4583,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -3897,6 +4612,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -3921,6 +4641,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -3945,6 +4670,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -3969,6 +4699,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -3993,6 +4728,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4017,6 +4757,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4041,6 +4786,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4065,6 +4815,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -4089,6 +4844,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -4113,6 +4873,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -4137,6 +4902,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4161,6 +4931,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -4185,6 +4960,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -4209,6 +4989,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -4233,6 +5018,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -4257,6 +5047,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4281,6 +5076,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -4305,6 +5105,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -4329,6 +5134,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -4353,6 +5163,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -4377,6 +5192,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4401,6 +5221,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -4425,6 +5250,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -4449,6 +5279,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -4473,6 +5308,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -4497,6 +5337,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -4521,6 +5366,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -4545,6 +5395,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -4569,6 +5424,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -4593,6 +5453,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -4617,6 +5482,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -4641,6 +5511,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -4665,6 +5540,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -4689,6 +5569,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -4713,6 +5598,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -4737,6 +5627,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -4761,6 +5656,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -4785,6 +5685,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -4809,6 +5714,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -4833,6 +5743,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -4857,6 +5772,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -4881,6 +5801,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -4905,6 +5830,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -4929,6 +5859,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -4953,6 +5888,11 @@
           <t>g__Veillonella</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -4977,6 +5917,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -5001,6 +5946,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -5025,6 +5975,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -5049,6 +6004,11 @@
           <t>g__Veillonella_A</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -5069,6 +6029,11 @@
         <v>0.9879266336417197</v>
       </c>
       <c r="F193" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
         <is>
           <t>g__Veillonella</t>
         </is>

--- a/outputs-HGR-r202/f__Veillonellaceae.xlsx
+++ b/outputs-HGR-r202/f__Veillonellaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,49 +561,49 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11020.fa</t>
+          <t>even_MAG-GUT10593.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001837287843133128</v>
+        <v>0.000384853648401775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9901517896858555</v>
+        <v>0.0001163964189464744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008010922471011419</v>
+        <v>0.9994987499326518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9901517896858555</v>
+        <v>0.9994987499326518</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>g__Veillonella</t>
+          <t>g__Veillonella_A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>g__Veillonella</t>
+          <t>g__Veillonella_A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1198.fa</t>
+          <t>even_MAG-GUT11020.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005339276134620734</v>
+        <v>0.001837287843133128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9887459123915537</v>
+        <v>0.9901517896858555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0107201599949842</v>
+        <v>0.008010922471011419</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9887459123915537</v>
+        <v>0.9901517896858555</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1206.fa</t>
+          <t>even_MAG-GUT1198.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006537795464218782</v>
+        <v>0.0005339276134620734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9954448511487337</v>
+        <v>0.9887459123915537</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003901369304844472</v>
+        <v>0.0107201599949842</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9954448511487337</v>
+        <v>0.9887459123915537</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1212.fa</t>
+          <t>even_MAG-GUT1206.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -677,20 +677,20 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1217.fa</t>
+          <t>even_MAG-GUT1212.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.836120077127804e-05</v>
+        <v>0.0006537795464218782</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9997122088972968</v>
+        <v>0.9954448511487337</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002694299019318539</v>
+        <v>0.003901369304844472</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997122088972968</v>
+        <v>0.9954448511487337</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -706,20 +706,20 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1227.fa</t>
+          <t>even_MAG-GUT1217.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006537795464218782</v>
+        <v>1.836120077127804e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9954448511487337</v>
+        <v>0.9997122088972968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003901369304844472</v>
+        <v>0.0002694299019318539</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9954448511487337</v>
+        <v>0.9997122088972968</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -735,20 +735,20 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1232.fa</t>
+          <t>even_MAG-GUT1227.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.741360041985856e-05</v>
+        <v>0.0006537795464218782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.997773833324186</v>
+        <v>0.9954448511487337</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002188753075394258</v>
+        <v>0.003901369304844472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.997773833324186</v>
+        <v>0.9954448511487337</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1355.fa</t>
+          <t>even_MAG-GUT1232.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002532890138708751</v>
+        <v>3.741360041985856e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9974013335628276</v>
+        <v>0.997773833324186</v>
       </c>
       <c r="D12" t="n">
-        <v>6.577629846360043e-05</v>
+        <v>0.002188753075394258</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9974013335628276</v>
+        <v>0.997773833324186</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,20 +793,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13830.fa</t>
+          <t>even_MAG-GUT1355.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0003739695115229917</v>
+        <v>0.002532890138708751</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9961378947556307</v>
+        <v>0.9974013335628276</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003488135732846313</v>
+        <v>6.577629846360043e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9961378947556307</v>
+        <v>0.9974013335628276</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -822,20 +822,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13999.fa</t>
+          <t>even_MAG-GUT13830.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.001606094153483785</v>
+        <v>0.0003739695115229917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9980441191491515</v>
+        <v>0.9961378947556307</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003497866973646835</v>
+        <v>0.003488135732846313</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9980441191491515</v>
+        <v>0.9961378947556307</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,20 +851,20 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1470.fa</t>
+          <t>even_MAG-GUT13999.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007410288372504233</v>
+        <v>0.001606094153483785</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9911376861877782</v>
+        <v>0.9980441191491515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001452025439717565</v>
+        <v>0.0003497866973646835</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9911376861877782</v>
+        <v>0.9980441191491515</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -880,20 +880,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1556.fa</t>
+          <t>even_MAG-GUT1470.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.588107985807978e-05</v>
+        <v>0.007410288372504233</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9955271123003683</v>
+        <v>0.9911376861877782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004427006619773617</v>
+        <v>0.001452025439717565</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9955271123003683</v>
+        <v>0.9911376861877782</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -909,20 +909,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1559.fa</t>
+          <t>even_MAG-GUT1556.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0001518199056038324</v>
+        <v>4.588107985807978e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991239730864762</v>
+        <v>0.9955271123003683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007242070079199359</v>
+        <v>0.004427006619773617</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9991239730864762</v>
+        <v>0.9955271123003683</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -938,20 +938,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT15797.fa</t>
+          <t>even_MAG-GUT1559.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000678457759383817</v>
+        <v>0.0001518199056038324</v>
       </c>
       <c r="C18" t="n">
-        <v>0.995570698815052</v>
+        <v>0.9991239730864762</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003750843425564145</v>
+        <v>0.0007242070079199359</v>
       </c>
       <c r="E18" t="n">
-        <v>0.995570698815052</v>
+        <v>0.9991239730864762</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,20 +967,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1584.fa</t>
+          <t>even_MAG-GUT15797.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02888201194419526</v>
+        <v>0.000678457759383817</v>
       </c>
       <c r="C19" t="n">
-        <v>0.971032638572025</v>
+        <v>0.995570698815052</v>
       </c>
       <c r="D19" t="n">
-        <v>8.53494837797158e-05</v>
+        <v>0.003750843425564145</v>
       </c>
       <c r="E19" t="n">
-        <v>0.971032638572025</v>
+        <v>0.995570698815052</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -996,20 +996,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17170.fa</t>
+          <t>even_MAG-GUT1584.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01370798681234951</v>
+        <v>0.02888201194419526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9758734874128168</v>
+        <v>0.971032638572025</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01041852577483368</v>
+        <v>8.53494837797158e-05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9758734874128168</v>
+        <v>0.971032638572025</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17664.fa</t>
+          <t>even_MAG-GUT17170.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.004426289090518734</v>
+        <v>0.01370798681234951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9926525913608536</v>
+        <v>0.9758734874128168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002921119548627634</v>
+        <v>0.01041852577483368</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9926525913608536</v>
+        <v>0.9758734874128168</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17671.fa</t>
+          <t>even_MAG-GUT17664.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001496933296502647</v>
+        <v>0.004426289090518734</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9983077700690687</v>
+        <v>0.9926525913608536</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0001952966344286895</v>
+        <v>0.002921119548627634</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983077700690687</v>
+        <v>0.9926525913608536</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1840.fa</t>
+          <t>even_MAG-GUT17671.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.010195308874373</v>
+        <v>0.001496933296502647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9896290499344466</v>
+        <v>0.9983077700690687</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001756411911805259</v>
+        <v>0.0001952966344286895</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9896290499344466</v>
+        <v>0.9983077700690687</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1112,20 +1112,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1930.fa</t>
+          <t>even_MAG-GUT1840.fa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0002514022575096313</v>
+        <v>0.010195308874373</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9973507523860468</v>
+        <v>0.9896290499344466</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002397845356443625</v>
+        <v>0.0001756411911805259</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9973507523860468</v>
+        <v>0.9896290499344466</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT1954.fa</t>
+          <t>even_MAG-GUT1930.fa</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01169164001526933</v>
+        <v>0.0002514022575096313</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9880123385707466</v>
+        <v>0.9973507523860468</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0002960214139841304</v>
+        <v>0.002397845356443625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9880123385707466</v>
+        <v>0.9973507523860468</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2031.fa</t>
+          <t>even_MAG-GUT1954.fa</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0003216658587845162</v>
+        <v>0.01169164001526933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9925797651787358</v>
+        <v>0.9880123385707466</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007098568962479657</v>
+        <v>0.0002960214139841304</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9925797651787358</v>
+        <v>0.9880123385707466</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1199,20 +1199,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2053.fa</t>
+          <t>even_MAG-GUT2031.fa</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.005661654944947524</v>
+        <v>0.0003216658587845162</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9942597571751726</v>
+        <v>0.9925797651787358</v>
       </c>
       <c r="D27" t="n">
-        <v>7.8587879879938e-05</v>
+        <v>0.007098568962479657</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9942597571751726</v>
+        <v>0.9925797651787358</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1228,20 +1228,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2061.fa</t>
+          <t>even_MAG-GUT2053.fa</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.531192138353859e-05</v>
+        <v>0.005661654944947524</v>
       </c>
       <c r="C28" t="n">
-        <v>0.993347326433765</v>
+        <v>0.9942597571751726</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006627361644851386</v>
+        <v>7.8587879879938e-05</v>
       </c>
       <c r="E28" t="n">
-        <v>0.993347326433765</v>
+        <v>0.9942597571751726</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1257,20 +1257,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2081.fa</t>
+          <t>even_MAG-GUT2061.fa</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02137868549871223</v>
+        <v>2.531192138353859e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9783081620656744</v>
+        <v>0.993347326433765</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0003131524356133371</v>
+        <v>0.006627361644851386</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9783081620656744</v>
+        <v>0.993347326433765</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,20 +1286,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2086.fa</t>
+          <t>even_MAG-GUT2081.fa</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01404410931797551</v>
+        <v>0.02137868549871223</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9857642747598552</v>
+        <v>0.9783081620656744</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001916159221693024</v>
+        <v>0.0003131524356133371</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9857642747598552</v>
+        <v>0.9783081620656744</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1315,20 +1315,20 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21682.fa</t>
+          <t>even_MAG-GUT2086.fa</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01938955903753154</v>
+        <v>0.01404410931797551</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9479226190025908</v>
+        <v>0.9857642747598552</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03268782195987784</v>
+        <v>0.0001916159221693024</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9479226190025908</v>
+        <v>0.9857642747598552</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25590.fa</t>
+          <t>even_MAG-GUT21682.fa</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001694823169813984</v>
+        <v>0.01938955903753154</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9830452650639666</v>
+        <v>0.9479226190025908</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0152599117662194</v>
+        <v>0.03268782195987784</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9830452650639666</v>
+        <v>0.9479226190025908</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3377.fa</t>
+          <t>even_MAG-GUT25590.fa</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04350936112127285</v>
+        <v>0.001694823169813984</v>
       </c>
       <c r="C33" t="n">
-        <v>0.883455627789971</v>
+        <v>0.9830452650639666</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07303501108875607</v>
+        <v>0.0152599117662194</v>
       </c>
       <c r="E33" t="n">
-        <v>0.883455627789971</v>
+        <v>0.9830452650639666</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1402,20 +1402,20 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36136.fa</t>
+          <t>even_MAG-GUT3377.fa</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.004759227342339373</v>
+        <v>0.04350936112127285</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9947760874456063</v>
+        <v>0.883455627789971</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0004646852120543558</v>
+        <v>0.07303501108875607</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9947760874456063</v>
+        <v>0.883455627789971</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1431,20 +1431,20 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT37445.fa</t>
+          <t>even_MAG-GUT36136.fa</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002547588408517755</v>
+        <v>0.004759227342339373</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9963521935917927</v>
+        <v>0.9947760874456063</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001100217999689413</v>
+        <v>0.0004646852120543558</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9963521935917927</v>
+        <v>0.9947760874456063</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1460,20 +1460,20 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43570.fa</t>
+          <t>even_MAG-GUT37445.fa</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0004660919853164576</v>
+        <v>0.002547588408517755</v>
       </c>
       <c r="C36" t="n">
-        <v>0.99926023177654</v>
+        <v>0.9963521935917927</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000273676238143508</v>
+        <v>0.001100217999689413</v>
       </c>
       <c r="E36" t="n">
-        <v>0.99926023177654</v>
+        <v>0.9963521935917927</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1489,20 +1489,20 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43698.fa</t>
+          <t>even_MAG-GUT43570.fa</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0005144954322738732</v>
+        <v>0.0004660919853164576</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9990205349651469</v>
+        <v>0.99926023177654</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0004649696025792941</v>
+        <v>0.000273676238143508</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9990205349651469</v>
+        <v>0.99926023177654</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1518,20 +1518,20 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44000.fa</t>
+          <t>even_MAG-GUT43698.fa</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0004145503162618733</v>
+        <v>0.0005144954322738732</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9982710787993867</v>
+        <v>0.9990205349651469</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001314370884351419</v>
+        <v>0.0004649696025792941</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9982710787993867</v>
+        <v>0.9990205349651469</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1547,20 +1547,20 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44111.fa</t>
+          <t>even_MAG-GUT44000.fa</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0003404304941229579</v>
+        <v>0.0004145503162618733</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9670224561871769</v>
+        <v>0.9982710787993867</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03263711331870022</v>
+        <v>0.001314370884351419</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9670224561871769</v>
+        <v>0.9982710787993867</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1576,20 +1576,20 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44662.fa</t>
+          <t>even_MAG-GUT44111.fa</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.000360785271366742</v>
+        <v>0.0003404304941229579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9935703549913588</v>
+        <v>0.9670224561871769</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006068859737274387</v>
+        <v>0.03263711331870022</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9935703549913588</v>
+        <v>0.9670224561871769</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1605,20 +1605,20 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44851.fa</t>
+          <t>even_MAG-GUT44662.fa</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.05167290191520174</v>
+        <v>0.000360785271366742</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9169448021201991</v>
+        <v>0.9935703549913588</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03138229596459916</v>
+        <v>0.006068859737274387</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9169448021201991</v>
+        <v>0.9935703549913588</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1634,20 +1634,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45317.fa</t>
+          <t>even_MAG-GUT44851.fa</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001932867490141678</v>
+        <v>0.05167290191520174</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9543757235333922</v>
+        <v>0.9169448021201991</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04369140897646625</v>
+        <v>0.03138229596459916</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9543757235333922</v>
+        <v>0.9169448021201991</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45633.fa</t>
+          <t>even_MAG-GUT45317.fa</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.007982888911623822</v>
+        <v>0.001932867490141678</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9916223208597262</v>
+        <v>0.9543757235333922</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0003947902286498718</v>
+        <v>0.04369140897646625</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9916223208597262</v>
+        <v>0.9543757235333922</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1692,20 +1692,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45684.fa</t>
+          <t>even_MAG-GUT45633.fa</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001176249823595924</v>
+        <v>0.007982888911623822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9403981816841506</v>
+        <v>0.9916223208597262</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05842556849225347</v>
+        <v>0.0003947902286498718</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9403981816841506</v>
+        <v>0.9916223208597262</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45719.fa</t>
+          <t>even_MAG-GUT45684.fa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0145154964305656</v>
+        <v>0.001176249823595924</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9811629419378916</v>
+        <v>0.9403981816841506</v>
       </c>
       <c r="D45" t="n">
-        <v>0.004321561631542788</v>
+        <v>0.05842556849225347</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9811629419378916</v>
+        <v>0.9403981816841506</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1750,20 +1750,20 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45776.fa</t>
+          <t>even_MAG-GUT45719.fa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0002765749396283301</v>
+        <v>0.0145154964305656</v>
       </c>
       <c r="C46" t="n">
-        <v>0.999667301995471</v>
+        <v>0.9811629419378916</v>
       </c>
       <c r="D46" t="n">
-        <v>5.612306490072983e-05</v>
+        <v>0.004321561631542788</v>
       </c>
       <c r="E46" t="n">
-        <v>0.999667301995471</v>
+        <v>0.9811629419378916</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1779,20 +1779,20 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46165.fa</t>
+          <t>even_MAG-GUT45776.fa</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02694862087721715</v>
+        <v>0.0002765749396283301</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9728738293683737</v>
+        <v>0.999667301995471</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001775497544090283</v>
+        <v>5.612306490072983e-05</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9728738293683737</v>
+        <v>0.999667301995471</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1808,20 +1808,20 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46247.fa</t>
+          <t>even_MAG-GUT46165.fa</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0003119168662451798</v>
+        <v>0.02694862087721715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9994105983605853</v>
+        <v>0.9728738293683737</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0002774847731694232</v>
+        <v>0.0001775497544090283</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9994105983605853</v>
+        <v>0.9728738293683737</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1837,20 +1837,20 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46435.fa</t>
+          <t>even_MAG-GUT46247.fa</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0006953958842267592</v>
+        <v>0.0003119168662451798</v>
       </c>
       <c r="C49" t="n">
-        <v>0.998307778477861</v>
+        <v>0.9994105983605853</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0009968256379122612</v>
+        <v>0.0002774847731694232</v>
       </c>
       <c r="E49" t="n">
-        <v>0.998307778477861</v>
+        <v>0.9994105983605853</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1866,20 +1866,20 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46922.fa</t>
+          <t>even_MAG-GUT46435.fa</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.002082934990171043</v>
+        <v>0.0006953958842267592</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9912356533322669</v>
+        <v>0.998307778477861</v>
       </c>
       <c r="D50" t="n">
-        <v>0.006681411677562104</v>
+        <v>0.0009968256379122612</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9912356533322669</v>
+        <v>0.998307778477861</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1895,20 +1895,20 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46931.fa</t>
+          <t>even_MAG-GUT46922.fa</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0003224786304673104</v>
+        <v>0.002082934990171043</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9931595023701358</v>
+        <v>0.9912356533322669</v>
       </c>
       <c r="D51" t="n">
-        <v>0.006518018999396774</v>
+        <v>0.006681411677562104</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9931595023701358</v>
+        <v>0.9912356533322669</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1924,20 +1924,20 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46987.fa</t>
+          <t>even_MAG-GUT46931.fa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0001550979656214381</v>
+        <v>0.0003224786304673104</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9822685066112765</v>
+        <v>0.9931595023701358</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01757639542310205</v>
+        <v>0.006518018999396774</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9822685066112765</v>
+        <v>0.9931595023701358</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1953,20 +1953,20 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47186.fa</t>
+          <t>even_MAG-GUT46987.fa</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00191340845431617</v>
+        <v>0.0001550979656214381</v>
       </c>
       <c r="C53" t="n">
-        <v>0.996935505024907</v>
+        <v>0.9822685066112765</v>
       </c>
       <c r="D53" t="n">
-        <v>0.001151086520776768</v>
+        <v>0.01757639542310205</v>
       </c>
       <c r="E53" t="n">
-        <v>0.996935505024907</v>
+        <v>0.9822685066112765</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1982,20 +1982,20 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47222.fa</t>
+          <t>even_MAG-GUT47186.fa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1368313917781632</v>
+        <v>0.00191340845431617</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8551113965543132</v>
+        <v>0.996935505024907</v>
       </c>
       <c r="D54" t="n">
-        <v>0.008057211667523533</v>
+        <v>0.001151086520776768</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8551113965543132</v>
+        <v>0.996935505024907</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2011,20 +2011,20 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47622.fa</t>
+          <t>even_MAG-GUT47222.fa</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0002241494822243279</v>
+        <v>0.1368313917781632</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9985532862303887</v>
+        <v>0.8551113965543132</v>
       </c>
       <c r="D55" t="n">
-        <v>0.001222564287386974</v>
+        <v>0.008057211667523533</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9985532862303887</v>
+        <v>0.8551113965543132</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2040,20 +2040,20 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47676.fa</t>
+          <t>even_MAG-GUT47622.fa</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.05779224523977507</v>
+        <v>0.0002241494822243279</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8935493934885198</v>
+        <v>0.9985532862303887</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04865836127170518</v>
+        <v>0.001222564287386974</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8935493934885198</v>
+        <v>0.9985532862303887</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2069,20 +2069,20 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47922.fa</t>
+          <t>even_MAG-GUT47676.fa</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.009559236090472708</v>
+        <v>0.05779224523977507</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9847144938802167</v>
+        <v>0.8935493934885198</v>
       </c>
       <c r="D57" t="n">
-        <v>0.005726270029310632</v>
+        <v>0.04865836127170518</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9847144938802167</v>
+        <v>0.8935493934885198</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2098,20 +2098,20 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48190.fa</t>
+          <t>even_MAG-GUT47922.fa</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001972694826383522</v>
+        <v>0.009559236090472708</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9978719562338166</v>
+        <v>0.9847144938802167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0001553489397998211</v>
+        <v>0.005726270029310632</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9978719562338166</v>
+        <v>0.9847144938802167</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2127,20 +2127,20 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48247.fa</t>
+          <t>even_MAG-GUT48190.fa</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.00086566329248244</v>
+        <v>0.001972694826383522</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9967263604656093</v>
+        <v>0.9978719562338166</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002407976241908226</v>
+        <v>0.0001553489397998211</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9967263604656093</v>
+        <v>0.9978719562338166</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2156,20 +2156,20 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48628.fa</t>
+          <t>even_MAG-GUT48247.fa</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001337739024160439</v>
+        <v>0.00086566329248244</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9767012046637585</v>
+        <v>0.9967263604656093</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02196105631208109</v>
+        <v>0.002407976241908226</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9767012046637585</v>
+        <v>0.9967263604656093</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2185,20 +2185,20 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48630.fa</t>
+          <t>even_MAG-GUT48628.fa</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.001952692092427728</v>
+        <v>0.001337739024160439</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9979816770462795</v>
+        <v>0.9767012046637585</v>
       </c>
       <c r="D61" t="n">
-        <v>6.56308612929782e-05</v>
+        <v>0.02196105631208109</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9979816770462795</v>
+        <v>0.9767012046637585</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2214,20 +2214,20 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48634.fa</t>
+          <t>even_MAG-GUT48630.fa</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.0001147352617438465</v>
+        <v>0.001952692092427728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9956855846669288</v>
+        <v>0.9979816770462795</v>
       </c>
       <c r="D62" t="n">
-        <v>0.004199680071327211</v>
+        <v>6.56308612929782e-05</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9956855846669288</v>
+        <v>0.9979816770462795</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2243,20 +2243,20 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48635.fa</t>
+          <t>even_MAG-GUT48634.fa</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0002430595429871702</v>
+        <v>0.0001147352617438465</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9965075036592204</v>
+        <v>0.9956855846669288</v>
       </c>
       <c r="D63" t="n">
-        <v>0.003249436797792417</v>
+        <v>0.004199680071327211</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9965075036592204</v>
+        <v>0.9956855846669288</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2272,20 +2272,20 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48651.fa</t>
+          <t>even_MAG-GUT48635.fa</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0001496451534249824</v>
+        <v>0.0002430595429871702</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9990790141814867</v>
+        <v>0.9965075036592204</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0007713406650883435</v>
+        <v>0.003249436797792417</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9990790141814867</v>
+        <v>0.9965075036592204</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2301,20 +2301,20 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48654.fa</t>
+          <t>even_MAG-GUT48651.fa</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01016230937664644</v>
+        <v>0.0001496451534249824</v>
       </c>
       <c r="C65" t="n">
-        <v>0.987517743748728</v>
+        <v>0.9990790141814867</v>
       </c>
       <c r="D65" t="n">
-        <v>0.002319946874625536</v>
+        <v>0.0007713406650883435</v>
       </c>
       <c r="E65" t="n">
-        <v>0.987517743748728</v>
+        <v>0.9990790141814867</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2330,20 +2330,20 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48684.fa</t>
+          <t>even_MAG-GUT48654.fa</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.004053239470439711</v>
+        <v>0.01016230937664644</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9945976707670645</v>
+        <v>0.987517743748728</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001349089762495766</v>
+        <v>0.002319946874625536</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9945976707670645</v>
+        <v>0.987517743748728</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2359,20 +2359,20 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48694.fa</t>
+          <t>even_MAG-GUT48684.fa</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00197861108676706</v>
+        <v>0.004053239470439711</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9974172250162285</v>
+        <v>0.9945976707670645</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0006041638970043567</v>
+        <v>0.001349089762495766</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9974172250162285</v>
+        <v>0.9945976707670645</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2388,20 +2388,20 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48733.fa</t>
+          <t>even_MAG-GUT48694.fa</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.009676928750456476</v>
+        <v>0.00197861108676706</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9241272963433337</v>
+        <v>0.9974172250162285</v>
       </c>
       <c r="D68" t="n">
-        <v>0.06619577490620979</v>
+        <v>0.0006041638970043567</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9241272963433337</v>
+        <v>0.9974172250162285</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2417,20 +2417,20 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48779.fa</t>
+          <t>even_MAG-GUT48733.fa</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.002096659613300135</v>
+        <v>0.009676928750456476</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9964888219889932</v>
+        <v>0.9241272963433337</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001414518397706645</v>
+        <v>0.06619577490620979</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9964888219889932</v>
+        <v>0.9241272963433337</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2446,20 +2446,20 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48825.fa</t>
+          <t>even_MAG-GUT48779.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.04912257251852436</v>
+        <v>0.002096659613300135</v>
       </c>
       <c r="C70" t="n">
-        <v>0.950809088991068</v>
+        <v>0.9964888219889932</v>
       </c>
       <c r="D70" t="n">
-        <v>6.833849040770805e-05</v>
+        <v>0.001414518397706645</v>
       </c>
       <c r="E70" t="n">
-        <v>0.950809088991068</v>
+        <v>0.9964888219889932</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2475,20 +2475,20 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48863.fa</t>
+          <t>even_MAG-GUT48825.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.807325007782628e-05</v>
+        <v>0.04912257251852436</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9995335693866106</v>
+        <v>0.950809088991068</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0004283573633115201</v>
+        <v>6.833849040770805e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9995335693866106</v>
+        <v>0.950809088991068</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2504,20 +2504,20 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48902.fa</t>
+          <t>even_MAG-GUT48863.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.009611065923391711</v>
+        <v>3.807325007782628e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9902291067388952</v>
+        <v>0.9995335693866106</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001598273377130945</v>
+        <v>0.0004283573633115201</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9902291067388952</v>
+        <v>0.9995335693866106</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2533,20 +2533,20 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48923.fa</t>
+          <t>even_MAG-GUT48902.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.002000604112433503</v>
+        <v>0.009611065923391711</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9914018561933874</v>
+        <v>0.9902291067388952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006597539694179097</v>
+        <v>0.0001598273377130945</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9914018561933874</v>
+        <v>0.9902291067388952</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2562,20 +2562,20 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48943.fa</t>
+          <t>even_MAG-GUT48923.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.003144020161653834</v>
+        <v>0.002000604112433503</v>
       </c>
       <c r="C74" t="n">
-        <v>0.99377363642716</v>
+        <v>0.9914018561933874</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003082343411186181</v>
+        <v>0.006597539694179097</v>
       </c>
       <c r="E74" t="n">
-        <v>0.99377363642716</v>
+        <v>0.9914018561933874</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2591,20 +2591,20 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48957.fa</t>
+          <t>even_MAG-GUT48943.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01271196864561485</v>
+        <v>0.003144020161653834</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9662401357516414</v>
+        <v>0.99377363642716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0210478956027438</v>
+        <v>0.003082343411186181</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9662401357516414</v>
+        <v>0.99377363642716</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2620,20 +2620,20 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48959.fa</t>
+          <t>even_MAG-GUT48949.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01341534999557288</v>
+        <v>2.888306519001007e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9855893870125921</v>
+        <v>0.9829712591407621</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0009952629918350945</v>
+        <v>0.01699985779404779</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9855893870125921</v>
+        <v>0.9829712591407621</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2649,20 +2649,20 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48964.fa</t>
+          <t>even_MAG-GUT48957.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0003744378580321995</v>
+        <v>0.01271196864561485</v>
       </c>
       <c r="C77" t="n">
-        <v>0.995032500219346</v>
+        <v>0.9662401357516414</v>
       </c>
       <c r="D77" t="n">
-        <v>0.004593061922621808</v>
+        <v>0.0210478956027438</v>
       </c>
       <c r="E77" t="n">
-        <v>0.995032500219346</v>
+        <v>0.9662401357516414</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2678,20 +2678,20 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48986.fa</t>
+          <t>even_MAG-GUT48959.fa</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.005918493116243105</v>
+        <v>0.01341534999557288</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9939498017126001</v>
+        <v>0.9855893870125921</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0001317051711568597</v>
+        <v>0.0009952629918350945</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9939498017126001</v>
+        <v>0.9855893870125921</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2707,20 +2707,20 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49003.fa</t>
+          <t>even_MAG-GUT48964.fa</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.07752229438848289</v>
+        <v>0.0003744378580321995</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8562821775776491</v>
+        <v>0.995032500219346</v>
       </c>
       <c r="D79" t="n">
-        <v>0.06619552803386816</v>
+        <v>0.004593061922621808</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8562821775776491</v>
+        <v>0.995032500219346</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2736,20 +2736,20 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49011.fa</t>
+          <t>even_MAG-GUT48986.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02527069007441202</v>
+        <v>0.005918493116243105</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9561560219286582</v>
+        <v>0.9939498017126001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01857328799692977</v>
+        <v>0.0001317051711568597</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9561560219286582</v>
+        <v>0.9939498017126001</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2765,20 +2765,20 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49026.fa</t>
+          <t>even_MAG-GUT49003.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.00553768039301178</v>
+        <v>0.07752229438848289</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9829825201916835</v>
+        <v>0.8562821775776491</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01147979941530458</v>
+        <v>0.06619552803386816</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9829825201916835</v>
+        <v>0.8562821775776491</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2794,20 +2794,20 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49035.fa</t>
+          <t>even_MAG-GUT49011.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.001165691816737449</v>
+        <v>0.02527069007441202</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9819665289707689</v>
+        <v>0.9561560219286582</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01686777921249365</v>
+        <v>0.01857328799692977</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9819665289707689</v>
+        <v>0.9561560219286582</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2823,20 +2823,20 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49036.fa</t>
+          <t>even_MAG-GUT49026.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.007168479614219825</v>
+        <v>0.00553768039301178</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9904197413285626</v>
+        <v>0.9829825201916835</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002411779057217594</v>
+        <v>0.01147979941530458</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9904197413285626</v>
+        <v>0.9829825201916835</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2852,20 +2852,20 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49203.fa</t>
+          <t>even_MAG-GUT49035.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.0002386103893653289</v>
+        <v>0.001165691816737449</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9436544169146182</v>
+        <v>0.9819665289707689</v>
       </c>
       <c r="D84" t="n">
-        <v>0.05610697269601657</v>
+        <v>0.01686777921249365</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9436544169146182</v>
+        <v>0.9819665289707689</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2881,20 +2881,20 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49266.fa</t>
+          <t>even_MAG-GUT49036.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.009765511958698181</v>
+        <v>0.007168479614219825</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9861299415629106</v>
+        <v>0.9904197413285626</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004104546478391189</v>
+        <v>0.002411779057217594</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9861299415629106</v>
+        <v>0.9904197413285626</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2910,20 +2910,20 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49294.fa</t>
+          <t>even_MAG-GUT49203.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.02713246687226572</v>
+        <v>0.0002386103893653289</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9633445444406442</v>
+        <v>0.9436544169146182</v>
       </c>
       <c r="D86" t="n">
-        <v>0.00952298868709014</v>
+        <v>0.05610697269601657</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9633445444406442</v>
+        <v>0.9436544169146182</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2939,20 +2939,20 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49309.fa</t>
+          <t>even_MAG-GUT49266.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01802537645158529</v>
+        <v>0.009765511958698181</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9817035823745103</v>
+        <v>0.9861299415629106</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0002710411739044433</v>
+        <v>0.004104546478391189</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9817035823745103</v>
+        <v>0.9861299415629106</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2968,20 +2968,20 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49328.fa</t>
+          <t>even_MAG-GUT49294.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.008864830981837404</v>
+        <v>0.02713246687226572</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9705887494500649</v>
+        <v>0.9633445444406442</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02054641956809757</v>
+        <v>0.00952298868709014</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9705887494500649</v>
+        <v>0.9633445444406442</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2997,20 +2997,20 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49355.fa</t>
+          <t>even_MAG-GUT49309.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.004568100196767431</v>
+        <v>0.01802537645158529</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9943357194909266</v>
+        <v>0.9817035823745103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.001096180312305921</v>
+        <v>0.0002710411739044433</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9943357194909266</v>
+        <v>0.9817035823745103</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3026,20 +3026,20 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49371.fa</t>
+          <t>even_MAG-GUT49328.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.006920612435261604</v>
+        <v>0.008864830981837404</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9893924800592778</v>
+        <v>0.9705887494500649</v>
       </c>
       <c r="D90" t="n">
-        <v>0.003686907505460642</v>
+        <v>0.02054641956809757</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9893924800592778</v>
+        <v>0.9705887494500649</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3055,20 +3055,20 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49399.fa</t>
+          <t>even_MAG-GUT49355.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02832196286469511</v>
+        <v>0.004568100196767431</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9626571957919752</v>
+        <v>0.9943357194909266</v>
       </c>
       <c r="D91" t="n">
-        <v>0.009020841343329757</v>
+        <v>0.001096180312305921</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9626571957919752</v>
+        <v>0.9943357194909266</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3084,20 +3084,20 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49414.fa</t>
+          <t>even_MAG-GUT49371.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.00222879290745848</v>
+        <v>0.006920612435261604</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9968197183296943</v>
+        <v>0.9893924800592778</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0009514887628472806</v>
+        <v>0.003686907505460642</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9968197183296943</v>
+        <v>0.9893924800592778</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3113,20 +3113,20 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49474.fa</t>
+          <t>even_MAG-GUT49399.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01681718357128589</v>
+        <v>0.02832196286469511</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9758840317829933</v>
+        <v>0.9626571957919752</v>
       </c>
       <c r="D93" t="n">
-        <v>0.007298784645720725</v>
+        <v>0.009020841343329757</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9758840317829933</v>
+        <v>0.9626571957919752</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3142,20 +3142,20 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49516.fa</t>
+          <t>even_MAG-GUT49414.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.005485138796412106</v>
+        <v>0.00222879290745848</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9930267689449996</v>
+        <v>0.9968197183296943</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001488092258588238</v>
+        <v>0.0009514887628472806</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9930267689449996</v>
+        <v>0.9968197183296943</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3171,20 +3171,20 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49534.fa</t>
+          <t>even_MAG-GUT49474.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.005297705007214441</v>
+        <v>0.01681718357128589</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9901564374836102</v>
+        <v>0.9758840317829933</v>
       </c>
       <c r="D95" t="n">
-        <v>0.004545857509175364</v>
+        <v>0.007298784645720725</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9901564374836102</v>
+        <v>0.9758840317829933</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3200,20 +3200,20 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49545.fa</t>
+          <t>even_MAG-GUT49516.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.001159028191182853</v>
+        <v>0.005485138796412106</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9979035695116898</v>
+        <v>0.9930267689449996</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0009374022971273727</v>
+        <v>0.001488092258588238</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9979035695116898</v>
+        <v>0.9930267689449996</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3229,20 +3229,20 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49558.fa</t>
+          <t>even_MAG-GUT49534.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.000624330599956593</v>
+        <v>0.005297705007214441</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9992466151354091</v>
+        <v>0.9901564374836102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.000129054264634228</v>
+        <v>0.004545857509175364</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9992466151354091</v>
+        <v>0.9901564374836102</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3258,20 +3258,20 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49568.fa</t>
+          <t>even_MAG-GUT49545.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.0003137778097308459</v>
+        <v>0.001159028191182853</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9965452772617737</v>
+        <v>0.9979035695116898</v>
       </c>
       <c r="D98" t="n">
-        <v>0.003140944928495542</v>
+        <v>0.0009374022971273727</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9965452772617737</v>
+        <v>0.9979035695116898</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3287,20 +3287,20 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49571.fa</t>
+          <t>even_MAG-GUT49558.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.0005612859641957204</v>
+        <v>0.000624330599956593</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9988289420287376</v>
+        <v>0.9992466151354091</v>
       </c>
       <c r="D99" t="n">
-        <v>0.000609772007066692</v>
+        <v>0.000129054264634228</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9988289420287376</v>
+        <v>0.9992466151354091</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3316,20 +3316,20 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49576.fa</t>
+          <t>even_MAG-GUT49568.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.004522233257043355</v>
+        <v>0.0003137778097308459</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9954592684688163</v>
+        <v>0.9965452772617737</v>
       </c>
       <c r="D100" t="n">
-        <v>1.849827414023117e-05</v>
+        <v>0.003140944928495542</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9954592684688163</v>
+        <v>0.9965452772617737</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3345,20 +3345,20 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49583.fa</t>
+          <t>even_MAG-GUT49571.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.0001462253335150457</v>
+        <v>0.0005612859641957204</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9986048770330043</v>
+        <v>0.9988289420287376</v>
       </c>
       <c r="D101" t="n">
-        <v>0.001248897633480547</v>
+        <v>0.000609772007066692</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9986048770330043</v>
+        <v>0.9988289420287376</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3374,20 +3374,20 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49589.fa</t>
+          <t>even_MAG-GUT49576.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.02090767571431015</v>
+        <v>0.004522233257043355</v>
       </c>
       <c r="C102" t="n">
-        <v>0.959522544083547</v>
+        <v>0.9954592684688163</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01956978020214276</v>
+        <v>1.849827414023117e-05</v>
       </c>
       <c r="E102" t="n">
-        <v>0.959522544083547</v>
+        <v>0.9954592684688163</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3403,20 +3403,20 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49596.fa</t>
+          <t>even_MAG-GUT49583.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.004544337362806613</v>
+        <v>0.0001462253335150457</v>
       </c>
       <c r="C103" t="n">
-        <v>0.993735955744645</v>
+        <v>0.9986048770330043</v>
       </c>
       <c r="D103" t="n">
-        <v>0.001719706892548381</v>
+        <v>0.001248897633480547</v>
       </c>
       <c r="E103" t="n">
-        <v>0.993735955744645</v>
+        <v>0.9986048770330043</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3432,20 +3432,20 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49597.fa</t>
+          <t>even_MAG-GUT49589.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.009199634673105661</v>
+        <v>0.02090767571431015</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9866456781874214</v>
+        <v>0.959522544083547</v>
       </c>
       <c r="D104" t="n">
-        <v>0.004154687139472925</v>
+        <v>0.01956978020214276</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9866456781874214</v>
+        <v>0.959522544083547</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3461,20 +3461,20 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49604.fa</t>
+          <t>even_MAG-GUT49596.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.004907437506011401</v>
+        <v>0.004544337362806613</v>
       </c>
       <c r="C105" t="n">
-        <v>0.992982584960157</v>
+        <v>0.993735955744645</v>
       </c>
       <c r="D105" t="n">
-        <v>0.00210997753383166</v>
+        <v>0.001719706892548381</v>
       </c>
       <c r="E105" t="n">
-        <v>0.992982584960157</v>
+        <v>0.993735955744645</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3490,20 +3490,20 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5199.fa</t>
+          <t>even_MAG-GUT49597.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.001280408117825106</v>
+        <v>0.009199634673105661</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9935655180428695</v>
+        <v>0.9866456781874214</v>
       </c>
       <c r="D106" t="n">
-        <v>0.005154073839305388</v>
+        <v>0.004154687139472925</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9935655180428695</v>
+        <v>0.9866456781874214</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3519,20 +3519,20 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5687.fa</t>
+          <t>even_MAG-GUT49604.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.00179259690600164</v>
+        <v>0.004907437506011401</v>
       </c>
       <c r="C107" t="n">
-        <v>0.975736999504083</v>
+        <v>0.992982584960157</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02247040358991547</v>
+        <v>0.00210997753383166</v>
       </c>
       <c r="E107" t="n">
-        <v>0.975736999504083</v>
+        <v>0.992982584960157</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3548,20 +3548,20 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64345.fa</t>
+          <t>even_MAG-GUT5199.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.003267366753193677</v>
+        <v>0.001280408117825106</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9907741950278272</v>
+        <v>0.9935655180428695</v>
       </c>
       <c r="D108" t="n">
-        <v>0.005958438218979103</v>
+        <v>0.005154073839305388</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9907741950278272</v>
+        <v>0.9935655180428695</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3577,20 +3577,20 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT64513.fa</t>
+          <t>even_MAG-GUT5687.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.003267366753193677</v>
+        <v>0.00179259690600164</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9907741950278272</v>
+        <v>0.975736999504083</v>
       </c>
       <c r="D109" t="n">
-        <v>0.005958438218979103</v>
+        <v>0.02247040358991547</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9907741950278272</v>
+        <v>0.975736999504083</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3606,20 +3606,20 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66953.fa</t>
+          <t>even_MAG-GUT64345.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.001126201173355677</v>
+        <v>0.003267366753193677</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9899905438066364</v>
+        <v>0.9907741950278272</v>
       </c>
       <c r="D110" t="n">
-        <v>0.008883255020007884</v>
+        <v>0.005958438218979103</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9899905438066364</v>
+        <v>0.9907741950278272</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3635,20 +3635,20 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67253.fa</t>
+          <t>even_MAG-GUT64513.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.001271349543386819</v>
+        <v>0.003267366753193677</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9969304784199366</v>
+        <v>0.9907741950278272</v>
       </c>
       <c r="D111" t="n">
-        <v>0.001798172036676458</v>
+        <v>0.005958438218979103</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9969304784199366</v>
+        <v>0.9907741950278272</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3664,20 +3664,20 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67256.fa</t>
+          <t>even_MAG-GUT66953.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.02418322882744228</v>
+        <v>0.001126201173355677</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9581198173378991</v>
+        <v>0.9899905438066364</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01769695383465876</v>
+        <v>0.008883255020007884</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9581198173378991</v>
+        <v>0.9899905438066364</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3693,20 +3693,20 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67799.fa</t>
+          <t>even_MAG-GUT67253.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.001089809836957784</v>
+        <v>0.001271349543386819</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9895413651300039</v>
+        <v>0.9969304784199366</v>
       </c>
       <c r="D113" t="n">
-        <v>0.009368825033038368</v>
+        <v>0.001798172036676458</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9895413651300039</v>
+        <v>0.9969304784199366</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3722,20 +3722,20 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68086.fa</t>
+          <t>even_MAG-GUT67256.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01245880790630163</v>
+        <v>0.02418322882744228</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9728306463736607</v>
+        <v>0.9581198173378991</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01471054572003786</v>
+        <v>0.01769695383465876</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9728306463736607</v>
+        <v>0.9581198173378991</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3751,20 +3751,20 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68216.fa</t>
+          <t>even_MAG-GUT67799.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.000325478834433784</v>
+        <v>0.001089809836957784</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9991545363099182</v>
+        <v>0.9895413651300039</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0005199848556479286</v>
+        <v>0.009368825033038368</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9991545363099182</v>
+        <v>0.9895413651300039</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3780,20 +3780,20 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68260.fa</t>
+          <t>even_MAG-GUT68086.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.001475454565539785</v>
+        <v>0.01245880790630163</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9219599595093307</v>
+        <v>0.9728306463736607</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07656458592512939</v>
+        <v>0.01471054572003786</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9219599595093307</v>
+        <v>0.9728306463736607</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3809,20 +3809,20 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68570.fa</t>
+          <t>even_MAG-GUT68216.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.002213733681614639</v>
+        <v>0.000325478834433784</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9976388590337638</v>
+        <v>0.9991545363099182</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0001474072846214682</v>
+        <v>0.0005199848556479286</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9976388590337638</v>
+        <v>0.9991545363099182</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3838,20 +3838,20 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68726.fa</t>
+          <t>even_MAG-GUT68260.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01138638724462456</v>
+        <v>0.001475454565539785</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9879578972385998</v>
+        <v>0.9219599595093307</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0006557155167755502</v>
+        <v>0.07656458592512939</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9879578972385998</v>
+        <v>0.9219599595093307</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3867,20 +3867,20 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68810.fa</t>
+          <t>even_MAG-GUT68570.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.004459898588309691</v>
+        <v>0.002213733681614639</v>
       </c>
       <c r="C119" t="n">
-        <v>0.989257794538251</v>
+        <v>0.9976388590337638</v>
       </c>
       <c r="D119" t="n">
-        <v>0.006282306873439329</v>
+        <v>0.0001474072846214682</v>
       </c>
       <c r="E119" t="n">
-        <v>0.989257794538251</v>
+        <v>0.9976388590337638</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3896,20 +3896,20 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68872.fa</t>
+          <t>even_MAG-GUT68726.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0007791119643739479</v>
+        <v>0.01138638724462456</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9881042449111902</v>
+        <v>0.9879578972385998</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01111664312443583</v>
+        <v>0.0006557155167755502</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9881042449111902</v>
+        <v>0.9879578972385998</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3925,20 +3925,20 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69096.fa</t>
+          <t>even_MAG-GUT68810.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.0001401725765633291</v>
+        <v>0.004459898588309691</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9995811094478817</v>
+        <v>0.989257794538251</v>
       </c>
       <c r="D121" t="n">
-        <v>0.0002787179755549507</v>
+        <v>0.006282306873439329</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9995811094478817</v>
+        <v>0.989257794538251</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3954,20 +3954,20 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69113.fa</t>
+          <t>even_MAG-GUT68872.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.0002208588886079656</v>
+        <v>0.0007791119643739479</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9876487801501606</v>
+        <v>0.9881042449111902</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01213036096123146</v>
+        <v>0.01111664312443583</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9876487801501606</v>
+        <v>0.9881042449111902</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3983,20 +3983,20 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69123.fa</t>
+          <t>even_MAG-GUT69096.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.0004768210441968044</v>
+        <v>0.0001401725765633291</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9991425075046938</v>
+        <v>0.9995811094478817</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0003806714511093971</v>
+        <v>0.0002787179755549507</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9991425075046938</v>
+        <v>0.9995811094478817</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -4012,20 +4012,20 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69144.fa</t>
+          <t>even_MAG-GUT69113.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.00398292423236953</v>
+        <v>0.0002208588886079656</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9951114726590328</v>
+        <v>0.9876487801501606</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0009056031085978298</v>
+        <v>0.01213036096123146</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9951114726590328</v>
+        <v>0.9876487801501606</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4041,20 +4041,20 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69198.fa</t>
+          <t>even_MAG-GUT69123.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.002759683963580081</v>
+        <v>0.0004768210441968044</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9962657974482346</v>
+        <v>0.9991425075046938</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0009745185881852724</v>
+        <v>0.0003806714511093971</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9962657974482346</v>
+        <v>0.9991425075046938</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4070,20 +4070,20 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69367.fa</t>
+          <t>even_MAG-GUT69144.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.007272123708303542</v>
+        <v>0.00398292423236953</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9697740120945247</v>
+        <v>0.9951114726590328</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02295386419717171</v>
+        <v>0.0009056031085978298</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9697740120945247</v>
+        <v>0.9951114726590328</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -4099,20 +4099,20 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69378.fa</t>
+          <t>even_MAG-GUT69198.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.000108930904053532</v>
+        <v>0.002759683963580081</v>
       </c>
       <c r="C127" t="n">
-        <v>0.993245634058605</v>
+        <v>0.9962657974482346</v>
       </c>
       <c r="D127" t="n">
-        <v>0.006645435037341572</v>
+        <v>0.0009745185881852724</v>
       </c>
       <c r="E127" t="n">
-        <v>0.993245634058605</v>
+        <v>0.9962657974482346</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -4128,20 +4128,20 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69417.fa</t>
+          <t>even_MAG-GUT69367.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.0003688909527794648</v>
+        <v>0.007272123708303542</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9983953837835003</v>
+        <v>0.9697740120945247</v>
       </c>
       <c r="D128" t="n">
-        <v>0.001235725263720109</v>
+        <v>0.02295386419717171</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9983953837835003</v>
+        <v>0.9697740120945247</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -4157,20 +4157,20 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69483.fa</t>
+          <t>even_MAG-GUT69378.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.0002385669807873825</v>
+        <v>0.000108930904053532</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9993077987261503</v>
+        <v>0.993245634058605</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0004536342930623397</v>
+        <v>0.006645435037341572</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9993077987261503</v>
+        <v>0.993245634058605</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -4186,20 +4186,20 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69551.fa</t>
+          <t>even_MAG-GUT69417.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.001287493016807051</v>
+        <v>0.0003688909527794648</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9961564796522455</v>
+        <v>0.9983953837835003</v>
       </c>
       <c r="D130" t="n">
-        <v>0.002556027330947424</v>
+        <v>0.001235725263720109</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9961564796522455</v>
+        <v>0.9983953837835003</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4215,20 +4215,20 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7088.fa</t>
+          <t>even_MAG-GUT69483.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.01126510103028499</v>
+        <v>0.0002385669807873825</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9857867606422049</v>
+        <v>0.9993077987261503</v>
       </c>
       <c r="D131" t="n">
-        <v>0.002948138327510123</v>
+        <v>0.0004536342930623397</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9857867606422049</v>
+        <v>0.9993077987261503</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4244,20 +4244,20 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7095.fa</t>
+          <t>even_MAG-GUT69551.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.01493853032747445</v>
+        <v>0.001287493016807051</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9571864421588731</v>
+        <v>0.9961564796522455</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02787502751365251</v>
+        <v>0.002556027330947424</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9571864421588731</v>
+        <v>0.9961564796522455</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -4273,20 +4273,20 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7099.fa</t>
+          <t>even_MAG-GUT7088.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.002545662059813658</v>
+        <v>0.01126510103028499</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9931258024982633</v>
+        <v>0.9857867606422049</v>
       </c>
       <c r="D133" t="n">
-        <v>0.004328535441923035</v>
+        <v>0.002948138327510123</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9931258024982633</v>
+        <v>0.9857867606422049</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4302,20 +4302,20 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7105.fa</t>
+          <t>even_MAG-GUT7095.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.003525617340648875</v>
+        <v>0.01493853032747445</v>
       </c>
       <c r="C134" t="n">
-        <v>0.9913564153537863</v>
+        <v>0.9571864421588731</v>
       </c>
       <c r="D134" t="n">
-        <v>0.005117967305564931</v>
+        <v>0.02787502751365251</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9913564153537863</v>
+        <v>0.9571864421588731</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7112.fa</t>
+          <t>even_MAG-GUT7099.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4360,20 +4360,20 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7120.fa</t>
+          <t>even_MAG-GUT7105.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.001753397549396693</v>
+        <v>0.003525617340648875</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9957595066378107</v>
+        <v>0.9913564153537863</v>
       </c>
       <c r="D136" t="n">
-        <v>0.002487095812792573</v>
+        <v>0.005117967305564931</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9957595066378107</v>
+        <v>0.9913564153537863</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -4389,20 +4389,20 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7132.fa</t>
+          <t>even_MAG-GUT7112.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.008812083041754029</v>
+        <v>0.002545662059813658</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9911240015667223</v>
+        <v>0.9931258024982633</v>
       </c>
       <c r="D137" t="n">
-        <v>6.3915391523726e-05</v>
+        <v>0.004328535441923035</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9911240015667223</v>
+        <v>0.9931258024982633</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4418,20 +4418,20 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7155.fa</t>
+          <t>even_MAG-GUT7120.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.000347866116780365</v>
+        <v>0.001753397549396693</v>
       </c>
       <c r="C138" t="n">
-        <v>0.995873128924236</v>
+        <v>0.9957595066378107</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00377900495898357</v>
+        <v>0.002487095812792573</v>
       </c>
       <c r="E138" t="n">
-        <v>0.995873128924236</v>
+        <v>0.9957595066378107</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -4447,20 +4447,20 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7161.fa</t>
+          <t>even_MAG-GUT7132.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.009346708223197281</v>
+        <v>0.008812083041754029</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9786390496461752</v>
+        <v>0.9911240015667223</v>
       </c>
       <c r="D139" t="n">
-        <v>0.01201424213062762</v>
+        <v>6.3915391523726e-05</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9786390496461752</v>
+        <v>0.9911240015667223</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -4476,20 +4476,20 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7166.fa</t>
+          <t>even_MAG-GUT7155.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.0006497509632740308</v>
+        <v>0.000347866116780365</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9946489077935811</v>
+        <v>0.995873128924236</v>
       </c>
       <c r="D140" t="n">
-        <v>0.004701341243144968</v>
+        <v>0.00377900495898357</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9946489077935811</v>
+        <v>0.995873128924236</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -4505,20 +4505,20 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7197.fa</t>
+          <t>even_MAG-GUT7161.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.0001521143334725819</v>
+        <v>0.009346708223197281</v>
       </c>
       <c r="C141" t="n">
-        <v>0.998577872937485</v>
+        <v>0.9786390496461752</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00127001272904242</v>
+        <v>0.01201424213062762</v>
       </c>
       <c r="E141" t="n">
-        <v>0.998577872937485</v>
+        <v>0.9786390496461752</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4534,20 +4534,20 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7210.fa</t>
+          <t>even_MAG-GUT7166.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.003462095770929908</v>
+        <v>0.0006497509632740308</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9898518147943974</v>
+        <v>0.9946489077935811</v>
       </c>
       <c r="D142" t="n">
-        <v>0.006686089434672578</v>
+        <v>0.004701341243144968</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9898518147943974</v>
+        <v>0.9946489077935811</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4563,20 +4563,20 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7229.fa</t>
+          <t>even_MAG-GUT7197.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.003043181010442719</v>
+        <v>0.0001521143334725819</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9969077710839032</v>
+        <v>0.998577872937485</v>
       </c>
       <c r="D143" t="n">
-        <v>4.90479056542494e-05</v>
+        <v>0.00127001272904242</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9969077710839032</v>
+        <v>0.998577872937485</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -4592,20 +4592,20 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7247.fa</t>
+          <t>even_MAG-GUT7210.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.04779805668368187</v>
+        <v>0.003462095770929908</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9519444813243931</v>
+        <v>0.9898518147943974</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0002574619919249523</v>
+        <v>0.006686089434672578</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9519444813243931</v>
+        <v>0.9898518147943974</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4621,20 +4621,20 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87821.fa</t>
+          <t>even_MAG-GUT7229.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.006690548224895859</v>
+        <v>0.003043181010442719</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9914899376561678</v>
+        <v>0.9969077710839032</v>
       </c>
       <c r="D145" t="n">
-        <v>0.001819514118936469</v>
+        <v>4.90479056542494e-05</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9914899376561678</v>
+        <v>0.9969077710839032</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4650,20 +4650,20 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87873.fa</t>
+          <t>even_MAG-GUT7247.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.02643310450262696</v>
+        <v>0.04779805668368187</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9693084624035794</v>
+        <v>0.9519444813243931</v>
       </c>
       <c r="D146" t="n">
-        <v>0.004258433093793636</v>
+        <v>0.0002574619919249523</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9693084624035794</v>
+        <v>0.9519444813243931</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4679,49 +4679,49 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89205.fa</t>
+          <t>even_MAG-GUT7546.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.004806117967860867</v>
+        <v>0.001493192522004218</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9885720980196974</v>
+        <v>4.169481079814825e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.006621784012441721</v>
+        <v>0.9984651126671975</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9885720980196974</v>
+        <v>0.9984651126671975</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>g__Veillonella</t>
+          <t>g__Veillonella_A</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>g__Veillonella</t>
+          <t>g__Veillonella_A</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89291.fa</t>
+          <t>even_MAG-GUT87821.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.005064825066775574</v>
+        <v>0.006690548224895859</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9945887720514565</v>
+        <v>0.9914899376561678</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0003464028817680983</v>
+        <v>0.001819514118936469</v>
       </c>
       <c r="E148" t="n">
-        <v>0.9945887720514565</v>
+        <v>0.9914899376561678</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -4737,20 +4737,20 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89318.fa</t>
+          <t>even_MAG-GUT87873.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.001545999246086194</v>
+        <v>0.02643310450262696</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9693084624035794</v>
       </c>
       <c r="D149" t="n">
-        <v>0.004666157986896576</v>
+        <v>0.004258433093793636</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9693084624035794</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -4766,20 +4766,20 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89356.fa</t>
+          <t>even_MAG-GUT89205.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.001545999246086194</v>
+        <v>0.004806117967860867</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9885720980196974</v>
       </c>
       <c r="D150" t="n">
-        <v>0.004666157986896576</v>
+        <v>0.006621784012441721</v>
       </c>
       <c r="E150" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9885720980196974</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -4795,20 +4795,20 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89364.fa</t>
+          <t>even_MAG-GUT89291.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.1529837151974147</v>
+        <v>0.005064825066775574</v>
       </c>
       <c r="C151" t="n">
-        <v>0.8386558610334889</v>
+        <v>0.9945887720514565</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008360423769096499</v>
+        <v>0.0003464028817680983</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8386558610334889</v>
+        <v>0.9945887720514565</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4824,20 +4824,20 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89717.fa</t>
+          <t>even_MAG-GUT89318.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.005484740344270372</v>
+        <v>0.001545999246086194</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9889768700739343</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="D152" t="n">
-        <v>0.005538389581795258</v>
+        <v>0.004666157986896576</v>
       </c>
       <c r="E152" t="n">
-        <v>0.9889768700739343</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4853,20 +4853,20 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90076.fa</t>
+          <t>even_MAG-GUT89356.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.0114392129087662</v>
+        <v>0.001545999246086194</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9884879012261546</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="D153" t="n">
-        <v>7.288586507932494e-05</v>
+        <v>0.004666157986896576</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9884879012261546</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4882,20 +4882,20 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90108.fa</t>
+          <t>even_MAG-GUT89364.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.009086828271735363</v>
+        <v>0.1529837151974147</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9875202366825028</v>
+        <v>0.8386558610334889</v>
       </c>
       <c r="D154" t="n">
-        <v>0.003392935045761921</v>
+        <v>0.008360423769096499</v>
       </c>
       <c r="E154" t="n">
-        <v>0.9875202366825028</v>
+        <v>0.8386558610334889</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4911,20 +4911,20 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90168.fa</t>
+          <t>even_MAG-GUT89717.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.01720279386086836</v>
+        <v>0.005484740344270372</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9726931570359559</v>
+        <v>0.9889768700739343</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01010404910317581</v>
+        <v>0.005538389581795258</v>
       </c>
       <c r="E155" t="n">
-        <v>0.9726931570359559</v>
+        <v>0.9889768700739343</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4940,20 +4940,20 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90190.fa</t>
+          <t>even_MAG-GUT90076.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.004806117967860867</v>
+        <v>0.0114392129087662</v>
       </c>
       <c r="C156" t="n">
-        <v>0.9885720980196974</v>
+        <v>0.9884879012261546</v>
       </c>
       <c r="D156" t="n">
-        <v>0.006621784012441721</v>
+        <v>7.288586507932494e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9885720980196974</v>
+        <v>0.9884879012261546</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4969,20 +4969,20 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90292.fa</t>
+          <t>even_MAG-GUT90108.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.004656827494009539</v>
+        <v>0.009086828271735363</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9897258421592953</v>
+        <v>0.9875202366825028</v>
       </c>
       <c r="D157" t="n">
-        <v>0.005617330346695175</v>
+        <v>0.003392935045761921</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9897258421592953</v>
+        <v>0.9875202366825028</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4998,20 +4998,20 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90367.fa</t>
+          <t>even_MAG-GUT90168.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.04516130042006357</v>
+        <v>0.01720279386086836</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9547905408079569</v>
+        <v>0.9726931570359559</v>
       </c>
       <c r="D158" t="n">
-        <v>4.815877197966657e-05</v>
+        <v>0.01010404910317581</v>
       </c>
       <c r="E158" t="n">
-        <v>0.9547905408079569</v>
+        <v>0.9726931570359559</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5027,20 +5027,20 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90600.fa</t>
+          <t>even_MAG-GUT90190.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.03588495724149622</v>
+        <v>0.004806117967860867</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9629286167848364</v>
+        <v>0.9885720980196974</v>
       </c>
       <c r="D159" t="n">
-        <v>0.001186425973667346</v>
+        <v>0.006621784012441721</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9629286167848364</v>
+        <v>0.9885720980196974</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5056,20 +5056,20 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90634.fa</t>
+          <t>even_MAG-GUT90292.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.04273620547267312</v>
+        <v>0.004656827494009539</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9570873438752988</v>
+        <v>0.9897258421592953</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0001764506520279886</v>
+        <v>0.005617330346695175</v>
       </c>
       <c r="E160" t="n">
-        <v>0.9570873438752988</v>
+        <v>0.9897258421592953</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -5085,20 +5085,20 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90947.fa</t>
+          <t>even_MAG-GUT90367.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.001545999246086194</v>
+        <v>0.04516130042006357</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9547905408079569</v>
       </c>
       <c r="D161" t="n">
-        <v>0.004666157986896576</v>
+        <v>4.815877197966657e-05</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9547905408079569</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -5114,20 +5114,20 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90977.fa</t>
+          <t>even_MAG-GUT90600.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.001545999246086194</v>
+        <v>0.03588495724149622</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9629286167848364</v>
       </c>
       <c r="D162" t="n">
-        <v>0.004666157986896576</v>
+        <v>0.001186425973667346</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9937878427670173</v>
+        <v>0.9629286167848364</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -5143,20 +5143,20 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91033.fa</t>
+          <t>even_MAG-GUT90634.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.03750949780071234</v>
+        <v>0.04273620547267312</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9620458620998674</v>
+        <v>0.9570873438752988</v>
       </c>
       <c r="D163" t="n">
-        <v>0.0004446400994201871</v>
+        <v>0.0001764506520279886</v>
       </c>
       <c r="E163" t="n">
-        <v>0.9620458620998674</v>
+        <v>0.9570873438752988</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91117.fa</t>
+          <t>even_MAG-GUT90947.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -5201,20 +5201,20 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91136.fa</t>
+          <t>even_MAG-GUT90977.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.001669217806968538</v>
+        <v>0.001545999246086194</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9948784009239034</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="D165" t="n">
-        <v>0.003452381269128035</v>
+        <v>0.004666157986896576</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9948784009239034</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -5230,20 +5230,20 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91276.fa</t>
+          <t>even_MAG-GUT91033.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.006834305064691159</v>
+        <v>0.03750949780071234</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9759096091246269</v>
+        <v>0.9620458620998674</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01725608581068197</v>
+        <v>0.0004446400994201871</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9759096091246269</v>
+        <v>0.9620458620998674</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -5259,20 +5259,20 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91278.fa</t>
+          <t>even_MAG-GUT91117.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.01892388786945219</v>
+        <v>0.001545999246086194</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9795573065352977</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="D167" t="n">
-        <v>0.001518805595250053</v>
+        <v>0.004666157986896576</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9795573065352977</v>
+        <v>0.9937878427670173</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -5288,20 +5288,20 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91345.fa</t>
+          <t>even_MAG-GUT91136.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.008626944679795426</v>
+        <v>0.001669217806968538</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9872505126588175</v>
+        <v>0.9948784009239034</v>
       </c>
       <c r="D168" t="n">
-        <v>0.004122542661387098</v>
+        <v>0.003452381269128035</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9872505126588175</v>
+        <v>0.9948784009239034</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -5317,20 +5317,20 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91364.fa</t>
+          <t>even_MAG-GUT91276.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.001602555887123794</v>
+        <v>0.006834305064691159</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9981634244385938</v>
+        <v>0.9759096091246269</v>
       </c>
       <c r="D169" t="n">
-        <v>0.0002340196742824842</v>
+        <v>0.01725608581068197</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9981634244385938</v>
+        <v>0.9759096091246269</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5346,20 +5346,20 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91383.fa</t>
+          <t>even_MAG-GUT91278.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.00159505432710946</v>
+        <v>0.01892388786945219</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9980373265717081</v>
+        <v>0.9795573065352977</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0003676191011824127</v>
+        <v>0.001518805595250053</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9980373265717081</v>
+        <v>0.9795573065352977</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -5375,20 +5375,20 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91475.fa</t>
+          <t>even_MAG-GUT91345.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0004010288120565118</v>
+        <v>0.008626944679795426</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9954276503707539</v>
+        <v>0.9872505126588175</v>
       </c>
       <c r="D171" t="n">
-        <v>0.004171320817189517</v>
+        <v>0.004122542661387098</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9954276503707539</v>
+        <v>0.9872505126588175</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -5404,20 +5404,20 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91600.fa</t>
+          <t>even_MAG-GUT91364.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.01588881254304581</v>
+        <v>0.001602555887123794</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9495646002849759</v>
+        <v>0.9981634244385938</v>
       </c>
       <c r="D172" t="n">
-        <v>0.03454658717197832</v>
+        <v>0.0002340196742824842</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9495646002849759</v>
+        <v>0.9981634244385938</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -5433,20 +5433,20 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91603.fa</t>
+          <t>even_MAG-GUT91383.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.004123693398480283</v>
+        <v>0.00159505432710946</v>
       </c>
       <c r="C173" t="n">
-        <v>0.975037178889783</v>
+        <v>0.9980373265717081</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02083912771173665</v>
+        <v>0.0003676191011824127</v>
       </c>
       <c r="E173" t="n">
-        <v>0.975037178889783</v>
+        <v>0.9980373265717081</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -5462,20 +5462,20 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91866.fa</t>
+          <t>even_MAG-GUT91475.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.02199431670577725</v>
+        <v>0.0004010288120565118</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9778407313221773</v>
+        <v>0.9954276503707539</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0001649519720455176</v>
+        <v>0.004171320817189517</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9778407313221773</v>
+        <v>0.9954276503707539</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -5491,20 +5491,20 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91873.fa</t>
+          <t>even_MAG-GUT91600.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.02096807937085184</v>
+        <v>0.01588881254304581</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9776570531423311</v>
+        <v>0.9495646002849759</v>
       </c>
       <c r="D175" t="n">
-        <v>0.001374867486817071</v>
+        <v>0.03454658717197832</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9776570531423311</v>
+        <v>0.9495646002849759</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5520,20 +5520,20 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91938.fa</t>
+          <t>even_MAG-GUT91603.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.001061283036200282</v>
+        <v>0.004123693398480283</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9966369017470313</v>
+        <v>0.975037178889783</v>
       </c>
       <c r="D176" t="n">
-        <v>0.002301815216768314</v>
+        <v>0.02083912771173665</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9966369017470313</v>
+        <v>0.975037178889783</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5549,20 +5549,20 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91964.fa</t>
+          <t>even_MAG-GUT91866.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.000350439526040595</v>
+        <v>0.02199431670577725</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9979193814522195</v>
+        <v>0.9778407313221773</v>
       </c>
       <c r="D177" t="n">
-        <v>0.001730179021739877</v>
+        <v>0.0001649519720455176</v>
       </c>
       <c r="E177" t="n">
-        <v>0.9979193814522195</v>
+        <v>0.9778407313221773</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -5578,20 +5578,20 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91970.fa</t>
+          <t>even_MAG-GUT91873.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.002818996722660047</v>
+        <v>0.02096807937085184</v>
       </c>
       <c r="C178" t="n">
-        <v>0.992438570165312</v>
+        <v>0.9776570531423311</v>
       </c>
       <c r="D178" t="n">
-        <v>0.00474243311202799</v>
+        <v>0.001374867486817071</v>
       </c>
       <c r="E178" t="n">
-        <v>0.992438570165312</v>
+        <v>0.9776570531423311</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -5607,20 +5607,20 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91971.fa</t>
+          <t>even_MAG-GUT91938.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.009386997897585273</v>
+        <v>0.001061283036200282</v>
       </c>
       <c r="C179" t="n">
-        <v>0.986749028738052</v>
+        <v>0.9966369017470313</v>
       </c>
       <c r="D179" t="n">
-        <v>0.003863973364362659</v>
+        <v>0.002301815216768314</v>
       </c>
       <c r="E179" t="n">
-        <v>0.986749028738052</v>
+        <v>0.9966369017470313</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5636,20 +5636,20 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91990.fa</t>
+          <t>even_MAG-GUT91964.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0006537133105291301</v>
+        <v>0.000350439526040595</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9972941998708302</v>
+        <v>0.9979193814522195</v>
       </c>
       <c r="D180" t="n">
-        <v>0.002052086818640569</v>
+        <v>0.001730179021739877</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9972941998708302</v>
+        <v>0.9979193814522195</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -5665,20 +5665,20 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91993.fa</t>
+          <t>even_MAG-GUT91970.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.006016270481513027</v>
+        <v>0.002818996722660047</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9938505983796996</v>
+        <v>0.992438570165312</v>
       </c>
       <c r="D181" t="n">
-        <v>0.000133131138787437</v>
+        <v>0.00474243311202799</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9938505983796996</v>
+        <v>0.992438570165312</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -5694,20 +5694,20 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92001.fa</t>
+          <t>even_MAG-GUT91971.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.006050312061913134</v>
+        <v>0.009386997897585273</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9698341561210111</v>
+        <v>0.986749028738052</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02411553181707588</v>
+        <v>0.003863973364362659</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9698341561210111</v>
+        <v>0.986749028738052</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5723,20 +5723,20 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT92091.fa</t>
+          <t>even_MAG-GUT91990.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.008157865606940767</v>
+        <v>0.0006537133105291301</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9599783757632754</v>
+        <v>0.9972941998708302</v>
       </c>
       <c r="D183" t="n">
-        <v>0.03186375862978397</v>
+        <v>0.002052086818640569</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9599783757632754</v>
+        <v>0.9972941998708302</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -5752,27 +5752,230 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT91993.fa</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.006016270481513027</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.9938505983796996</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.000133131138787437</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.9938505983796996</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92001.fa</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.006050312061913134</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.9698341561210111</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.02411553181707588</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.9698341561210111</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT92091.fa</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.008157865606940767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.9599783757632754</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.03186375862978397</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.9599783757632754</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9303.fa</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.000783871807598093</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.0001571327742037941</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.9990589954181982</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.9990589954181982</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9316.fa</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0005610591638237</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.0003127731925965882</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.9991261676435798</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.9991261676435798</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9364.fa</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.0009912481349671561</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.656481620728718e-05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.9989621870488257</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.9989621870488257</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT9376.fa</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.001145929454557494</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.77757810456562e-05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.9988262947643969</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.9988262947643969</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>g__Veillonella_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT956.fa</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B191" t="n">
         <v>0.0001567645886161225</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C191" t="n">
         <v>0.9879266336417197</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D191" t="n">
         <v>0.0119166017696643</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E191" t="n">
         <v>0.9879266336417197</v>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>g__Veillonella</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>g__Veillonella</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
         <is>
           <t>g__Veillonella</t>
         </is>
